--- a/导表工具/Excels/__tables__.xlsx
+++ b/导表工具/Excels/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\导表工具\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuanguo/Game/HEDAO/导表工具/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A96C54-E5C2-43E8-8979-C08680E80015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0619F7B1-8C6F-B844-AF4B-0E9EAFB6EEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,9 +109,6 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>角色表@战斗表.xlsx</t>
-  </si>
-  <si>
     <t>RoleData</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -153,6 +150,10 @@
   </si>
   <si>
     <t>Effect.TblGridEffect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表@角色表.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +198,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -227,15 +237,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -251,9 +264,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -530,23 +547,23 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="29.08203125" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
     <col min="5" max="5" width="30.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="10.9140625" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +583,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -584,7 +601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -619,7 +636,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -645,60 +662,63 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>29</v>
+      <c r="E4" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{9CA8AD21-5A7D-CF46-8955-DC0BEC8B8746}"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/导表工具/Excels/__tables__.xlsx
+++ b/导表工具/Excels/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuanguo/Game/HEDAO/导表工具/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0619F7B1-8C6F-B844-AF4B-0E9EAFB6EEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E192F22F-10A6-504F-B6A1-00F0CEF9C1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -31,9 +31,6 @@
     <t>value_type</t>
   </si>
   <si>
-    <t>define_from_file</t>
-  </si>
-  <si>
     <t>input</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>为空的话自动取value_type中第一个字段,多主键联合索引为key1+key2,多主键独立索引为"key1,key2"</t>
   </si>
   <si>
-    <t>取值one|map|list，为空自动为one</t>
-  </si>
-  <si>
     <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
   </si>
   <si>
@@ -109,26 +103,10 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>RoleData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle.TblRoleData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>特效资源表@资源表.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Effect.TblEffect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>one</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -137,10 +115,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>map</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GridEffectRes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -149,11 +123,59 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Effect.TblGridEffect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>角色表@角色表.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleSkillCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗技能表@技能表.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mode#default=map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取值one|map|list，为空自动为map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleMoveCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>define_from_file#default=TRUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动技能表@技能表.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle.TbRoleCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect.TbEffect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect.TbGridEffect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle.TbBattleSkillCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle.TbMoveSkillCfg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,12 +195,14 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -202,6 +226,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -248,7 +280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -261,10 +293,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -557,7 +592,7 @@
     <col min="4" max="4" width="25.6640625" customWidth="1"/>
     <col min="5" max="5" width="30.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" customWidth="1"/>
@@ -574,151 +609,167 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G6" t="s">
-        <v>34</v>
+      <c r="E8" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{9CA8AD21-5A7D-CF46-8955-DC0BEC8B8746}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{0ECDC81B-C97E-5C44-8D61-17DE43BE9A43}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{70332FBC-D1E1-914A-985B-5EFE85FD1DA9}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{0843A170-52D2-8746-B099-7A0E8E15CF76}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/导表工具/Excels/__tables__.xlsx
+++ b/导表工具/Excels/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuanguo/Game/HEDAO/导表工具/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E192F22F-10A6-504F-B6A1-00F0CEF9C1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1D9716-10B3-974F-AF98-1C55266BB7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RoleCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BattleSkillCfg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -159,10 +155,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Battle.TbRoleCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Effect.TbEffect</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -176,6 +168,14 @@
   </si>
   <si>
     <t>Battle.TbMoveSkillCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle.TbCharacter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterCfg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -280,7 +280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -293,13 +293,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,7 +585,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -609,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -618,7 +621,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -685,7 +688,7 @@
         <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>24</v>
@@ -699,24 +702,24 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G5" t="s">
@@ -725,40 +728,40 @@
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="5"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
